--- a/src/test/resources/data/jdgroupTA585_586_587.xlsx
+++ b/src/test/resources/data/jdgroupTA585_586_587.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A785EC9-8590-4A87-9AD4-218EE1FB9318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="18" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="evs_InvalidEmailNewsLetter++" sheetId="113" r:id="rId1"/>
@@ -113,12 +112,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,12 +135,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,12 +179,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,12 +223,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-5100-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -4085,9 +4084,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="297">
     <dxf>
@@ -7090,156 +7089,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="evs_SAP_OrderRelated++"/>
-      <sheetName val="evs_OrderStatusSearch++"/>
-      <sheetName val="URL++"/>
-      <sheetName val="EVS_Login_magento++"/>
-      <sheetName val="Login_magento++"/>
-      <sheetName val="Suites"/>
-      <sheetName val="IC"/>
-      <sheetName val="EVS"/>
-      <sheetName val="validatePaymentOption++"/>
-      <sheetName val="evs_RetriveOrderID++"/>
-      <sheetName val="evs_PayUPagePayment++"/>
-      <sheetName val="evs_CheckoutpaymentOption++"/>
-      <sheetName val="evs_GenerateOrderSAPnumber++"/>
-      <sheetName val="evs_DeliveryPopulation++"/>
-      <sheetName val="evs_AccountCreation++"/>
-      <sheetName val="evs_ProductSearch++"/>
-      <sheetName val="ProductSearch++"/>
-      <sheetName val="accountCreation++"/>
-      <sheetName val="parrallel_ic_Login++"/>
-      <sheetName val="evs_Login++"/>
-      <sheetName val="SapRSIGetDataFromSAPDB++"/>
-      <sheetName val="icInvalidEmailNewsLetter++"/>
-      <sheetName val="ic_SubscribeNewsletter++"/>
-      <sheetName val="evs_RemoveFromcart++"/>
-      <sheetName val="ic_RemoveFromcart++"/>
-      <sheetName val="IC_ClearWishList++"/>
-      <sheetName val="evs_ClearWishList++"/>
-      <sheetName val="evs_NavigetoWishlist++"/>
-      <sheetName val="ic_NavigetoWishlist++"/>
-      <sheetName val="Magento_UserInfoVerification++"/>
-      <sheetName val="IC_ProductsSortBy++"/>
-      <sheetName val="ic_SubscribeNews_DupliEmailID++"/>
-      <sheetName val="EnterSpouseInfor++"/>
-      <sheetName val="EnterContact++"/>
-      <sheetName val="CreditEnterAddressDetails++"/>
-      <sheetName val="CreditEnterEmploymentDetails++"/>
-      <sheetName val="EnterBasicDetails++"/>
-      <sheetName val="CreditStatusVerification++"/>
-      <sheetName val="CreditApp_NavigateFilter++"/>
-      <sheetName val="giftCardReport++"/>
-      <sheetName val="adminUserUpdate++"/>
-      <sheetName val="ICUpdateUser++"/>
-      <sheetName val="SapCustomer++"/>
-      <sheetName val="PayUPagePayment++"/>
-      <sheetName val="CheckoutpaymentOption++"/>
-      <sheetName val="deliveryPopulation++"/>
-      <sheetName val="RetrieveCustomerDetailsOld++"/>
-      <sheetName val="icGiftCardPurchase++"/>
-      <sheetName val="SAP_OrderRelated++"/>
-      <sheetName val="GenerateOrderSAPnumber++"/>
-      <sheetName val="OrderStatusSearch++"/>
-      <sheetName val="ic_RetriveOrderID++"/>
-      <sheetName val="evs_WishlistToCart++"/>
-      <sheetName val="IC_WishlistToCart++"/>
       <sheetName val="Products_Category"/>
-      <sheetName val="icRedeemGiftCard++"/>
-      <sheetName val="VeriyGiftcardUsableity++"/>
-      <sheetName val="ic_login++"/>
-      <sheetName val="ClearCart++"/>
-      <sheetName val="ic_invalidCredslogin++"/>
-      <sheetName val="SendWishlistToEmail++"/>
-      <sheetName val="icEmailWishlistverification++"/>
-      <sheetName val="DB_connection_master++"/>
-      <sheetName val="icGiftCardVerificationSender++"/>
-      <sheetName val="ic_CashDepositPayment++"/>
-      <sheetName val="CreateaccountBackend++"/>
-      <sheetName val="icSearchNoResultsReturned++"/>
-      <sheetName val="Russels"/>
-      <sheetName val="Login++"/>
-      <sheetName val="Bradlows"/>
-      <sheetName val="Rochester"/>
-      <sheetName val="Preferred Store"/>
-      <sheetName val="Sleepmasters"/>
-      <sheetName val="HiFiCorp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7288,7 +7141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7321,26 +7174,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7373,23 +7209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7565,7 +7384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7612,15 +7431,15 @@
     <cfRule type="duplicateValues" dxfId="296" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
@@ -8517,12 +8336,12 @@
     <cfRule type="duplicateValues" dxfId="249" priority="13"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8530,7 +8349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8719,10 +8538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12615,300 +12434,300 @@
     <cfRule type="duplicateValues" dxfId="209" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="H3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="I4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="H4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="I5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="H5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="I6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="H6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0B00-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000023000000}"/>
-    <hyperlink ref="H27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000024000000}"/>
-    <hyperlink ref="I27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000025000000}"/>
-    <hyperlink ref="M27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000026000000}"/>
-    <hyperlink ref="O27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000027000000}"/>
-    <hyperlink ref="H24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000028000000}"/>
-    <hyperlink ref="H25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000029000000}"/>
-    <hyperlink ref="H22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-00002A000000}"/>
-    <hyperlink ref="H23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-00002B000000}"/>
-    <hyperlink ref="H26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00002F000000}"/>
-    <hyperlink ref="J27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-000030000000}"/>
-    <hyperlink ref="K27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000031000000}"/>
-    <hyperlink ref="N27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-000032000000}"/>
-    <hyperlink ref="L27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-000033000000}"/>
-    <hyperlink ref="P27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000034000000}"/>
-    <hyperlink ref="H28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000035000000}"/>
-    <hyperlink ref="H30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000036000000}"/>
-    <hyperlink ref="I28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000037000000}"/>
-    <hyperlink ref="I30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000038000000}"/>
-    <hyperlink ref="M28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000039000000}"/>
-    <hyperlink ref="M30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00003A000000}"/>
-    <hyperlink ref="O28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-00003B000000}"/>
-    <hyperlink ref="O30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-00003C000000}"/>
-    <hyperlink ref="J28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00003D000000}"/>
-    <hyperlink ref="J30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
-    <hyperlink ref="K28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-00003F000000}"/>
-    <hyperlink ref="K30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000040000000}"/>
-    <hyperlink ref="N28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-000041000000}"/>
-    <hyperlink ref="N30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-000042000000}"/>
-    <hyperlink ref="L28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-000043000000}"/>
-    <hyperlink ref="L30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-000044000000}"/>
-    <hyperlink ref="P28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000045000000}"/>
-    <hyperlink ref="P30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000046000000}"/>
-    <hyperlink ref="H31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000047000000}"/>
-    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000048000000}"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000049000000}"/>
-    <hyperlink ref="O31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
-    <hyperlink ref="J31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00004B000000}"/>
-    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-00004C000000}"/>
-    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-00004D000000}"/>
-    <hyperlink ref="P31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-00004E000000}"/>
-    <hyperlink ref="H29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-00004F000000}"/>
-    <hyperlink ref="I29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000050000000}"/>
-    <hyperlink ref="M29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000051000000}"/>
-    <hyperlink ref="O29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000052000000}"/>
-    <hyperlink ref="J29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-000053000000}"/>
-    <hyperlink ref="K29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000054000000}"/>
-    <hyperlink ref="N29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-000055000000}"/>
-    <hyperlink ref="L29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-000056000000}"/>
-    <hyperlink ref="P29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000057000000}"/>
-    <hyperlink ref="H32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000058000000}"/>
-    <hyperlink ref="I32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-000059000000}"/>
-    <hyperlink ref="M32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00005A000000}"/>
-    <hyperlink ref="J32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00005B000000}"/>
-    <hyperlink ref="K32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
-    <hyperlink ref="N32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-00005D000000}"/>
-    <hyperlink ref="L32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-00005E000000}"/>
-    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-00005F000000}"/>
-    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000062000000}"/>
-    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-000063000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-000064000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000065000000}"/>
-    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000066000000}"/>
-    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-000067000000}"/>
-    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000068000000}"/>
-    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000069000000}"/>
-    <hyperlink ref="H33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0B00-00006A000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0B00-00006B000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00006C000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-00006D000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00006E000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-00006F000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000070000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000071000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0B00-000072000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0B00-000073000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0B00-000074000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0B00-000075000000}"/>
-    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0B00-000076000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000077000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000078000000}"/>
-    <hyperlink ref="H49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0B00-000079000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-00007A000000}"/>
-    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00007B000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-00007C000000}"/>
-    <hyperlink ref="K54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-00007D000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00007E000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0B00-00007F000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0B00-000080000000}"/>
-    <hyperlink ref="O32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000081000000}"/>
-    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0B00-000082000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0B00-000083000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0B00-000084000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0B00-000085000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000086000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000087000000}"/>
-    <hyperlink ref="H53:H54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0B00-000088000000}"/>
-    <hyperlink ref="I53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-000089000000}"/>
-    <hyperlink ref="J53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-00008A000000}"/>
-    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0B00-00008B000000}"/>
-    <hyperlink ref="H36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-00008C000000}"/>
-    <hyperlink ref="J36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-00008D000000}"/>
-    <hyperlink ref="K36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00008E000000}"/>
-    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00008F000000}"/>
-    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0B00-000090000000}"/>
-    <hyperlink ref="L36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000091000000}"/>
-    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000092000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0B00-000093000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0B00-000094000000}"/>
-    <hyperlink ref="H50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0B00-000095000000}"/>
-    <hyperlink ref="H50:H52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0B00-000096000000}"/>
-    <hyperlink ref="I2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-000097000000}"/>
-    <hyperlink ref="L2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-000098000000}"/>
-    <hyperlink ref="H2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0B00-000099000000}"/>
-    <hyperlink ref="K2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-00009A000000}"/>
-    <hyperlink ref="L3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00009B000000}"/>
-    <hyperlink ref="L5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-00009C000000}"/>
-    <hyperlink ref="K3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-00009D000000}"/>
-    <hyperlink ref="K4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="K5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
-    <hyperlink ref="L6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-0000A0000000}"/>
-    <hyperlink ref="K6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000A1000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000A2000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000A3000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0B00-0000A4000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0B00-0000A5000000}"/>
-    <hyperlink ref="J2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0B00-0000A6000000}"/>
-    <hyperlink ref="J3:J6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0B00-0000A7000000}"/>
-    <hyperlink ref="K55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000A8000000}"/>
-    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-0000A9000000}"/>
-    <hyperlink ref="H55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0B00-0000AA000000}"/>
-    <hyperlink ref="L55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0B00-0000AB000000}"/>
-    <hyperlink ref="K56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000AC000000}"/>
-    <hyperlink ref="K57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000AD000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000AE000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-0000AF000000}"/>
-    <hyperlink ref="H69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000B0000000}"/>
-    <hyperlink ref="L71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000B1000000}"/>
-    <hyperlink ref="I71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0B00-0000B2000000}"/>
-    <hyperlink ref="J71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000B3000000}"/>
-    <hyperlink ref="K71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-0000B4000000}"/>
-    <hyperlink ref="M71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0B00-0000B5000000}"/>
-    <hyperlink ref="N71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0B00-0000B6000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0B00-0000B7000000}"/>
-    <hyperlink ref="J56:J57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-0000B8000000}"/>
-    <hyperlink ref="H63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0B00-0000B9000000}"/>
-    <hyperlink ref="H64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0B00-0000BA000000}"/>
-    <hyperlink ref="H70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000BB000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0B00-0000BC000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000BD000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000BE000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0B00-0000BF000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-0000C1000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-0000C2000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-0000C3000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-0000C4000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-0000C5000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-0000C6000000}"/>
-    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000C7000000}"/>
-    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-0000C8000000}"/>
-    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-0000C9000000}"/>
-    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-0000CA000000}"/>
-    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-0000CB000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-0000CC000000}"/>
-    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000CD000000}"/>
-    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000CE000000}"/>
-    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0B00-0000CF000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-0000D0000000}"/>
-    <hyperlink ref="M54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-0000D1000000}"/>
-    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000D2000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000D3000000}"/>
-    <hyperlink ref="L57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000D4000000}"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000D5000000}"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0B00-0000D6000000}"/>
-    <hyperlink ref="L54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0B00-0000D7000000}"/>
-    <hyperlink ref="H74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{00000000-0004-0000-0B00-0000D8000000}"/>
-    <hyperlink ref="H78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000D9000000}"/>
-    <hyperlink ref="H79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000DA000000}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000DB000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-0000DC000000}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000DD000000}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000DE000000}"/>
-    <hyperlink ref="H75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000DF000000}"/>
-    <hyperlink ref="H76:H77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000E0000000}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000E1000000}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-0000E2000000}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000E3000000}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000E4000000}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000E5000000}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0B00-0000E6000000}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000E7000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000E8000000}"/>
-    <hyperlink ref="I36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0B00-0000E9000000}"/>
-    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000EA000000}"/>
-    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-0B00-0000EB000000}"/>
-    <hyperlink ref="I88" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000EC000000}"/>
-    <hyperlink ref="I89" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000ED000000}"/>
-    <hyperlink ref="I90" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000EE000000}"/>
-    <hyperlink ref="I91" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000EF000000}"/>
-    <hyperlink ref="N92" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000F0000000}"/>
-    <hyperlink ref="K92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-0000F1000000}"/>
-    <hyperlink ref="J92" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-0000F2000000}"/>
-    <hyperlink ref="L92" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-0000F3000000}"/>
-    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-0000F4000000}"/>
-    <hyperlink ref="N93" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-0000F5000000}"/>
-    <hyperlink ref="I93" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000F6000000}"/>
-    <hyperlink ref="K93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-0000F7000000}"/>
-    <hyperlink ref="J93" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-0000F8000000}"/>
-    <hyperlink ref="L93" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-0000F9000000}"/>
-    <hyperlink ref="O93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-0000FA000000}"/>
-    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-0000FB000000}"/>
-    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-0000FC000000}"/>
-    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-0000FD000000}"/>
-    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption" xr:uid="{00000000-0004-0000-0B00-0000FE000000}"/>
-    <hyperlink ref="M93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-0000FF000000}"/>
-    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000000010000}"/>
-    <hyperlink ref="G44" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000001010000}"/>
-    <hyperlink ref="G2:G6" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000002010000}"/>
-    <hyperlink ref="G22:G33" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
-    <hyperlink ref="G36" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000004010000}"/>
-    <hyperlink ref="G45:G46" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000005010000}"/>
-    <hyperlink ref="G49:G57" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000006010000}"/>
-    <hyperlink ref="G63:G79" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000007010000}"/>
-    <hyperlink ref="G81:G84" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000008010000}"/>
-    <hyperlink ref="G86:G93" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0B00-000009010000}"/>
-    <hyperlink ref="G95" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-00000A010000}"/>
-    <hyperlink ref="J95" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-00000B010000}"/>
-    <hyperlink ref="L95" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00000C010000}"/>
-    <hyperlink ref="M95" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-00000D010000}"/>
-    <hyperlink ref="N95" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-00000E010000}"/>
-    <hyperlink ref="O95" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00000F010000}"/>
-    <hyperlink ref="P95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000010010000}"/>
-    <hyperlink ref="S95" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000011010000}"/>
-    <hyperlink ref="T95" location="'srs_Login++'!A1" display="srs_Login" xr:uid="{00000000-0004-0000-0B00-000012010000}"/>
-    <hyperlink ref="U95" location="'SRSLogonStore++'!A1" display="SRSLogonStore" xr:uid="{00000000-0004-0000-0B00-000013010000}"/>
-    <hyperlink ref="V95" location="'srs_salesOrder_DeliverStatus++'!A1" display="srs_salesOrder_DeliverStatus" xr:uid="{00000000-0004-0000-0B00-000014010000}"/>
-    <hyperlink ref="I95" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-000015010000}"/>
-    <hyperlink ref="R95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000016010000}"/>
-    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-000017010000}"/>
-    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-000018010000}"/>
-    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0B00-000019010000}"/>
-    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-00001A010000}"/>
-    <hyperlink ref="N96" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
-    <hyperlink ref="O96" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0B00-00001C010000}"/>
-    <hyperlink ref="I96" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0B00-00001D010000}"/>
-    <hyperlink ref="K96" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0B00-00001E010000}"/>
-    <hyperlink ref="J96" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0B00-00001F010000}"/>
-    <hyperlink ref="L96" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0B00-000020010000}"/>
-    <hyperlink ref="M96" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0B00-000021010000}"/>
-    <hyperlink ref="G96" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0B00-000022010000}"/>
-    <hyperlink ref="H96" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0B00-000023010000}"/>
-    <hyperlink ref="P96" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0B00-000024010000}"/>
-    <hyperlink ref="Q96" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0B00-000025010000}"/>
+    <hyperlink ref="I3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="H24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="L30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="K54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="O32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H53:H54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="H36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="L36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H50:H52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="I2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="K2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="L3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="L6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J3:J6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="K55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="L55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="K56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="H69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="M71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="N71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="H56:H57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J56:J57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="H64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="H70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I56:I57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="L57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="H78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H76:H77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="I88" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I89" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I90" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I91" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N92" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J92" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L92" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N93" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I93" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J93" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L93" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="O93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption"/>
+    <hyperlink ref="M93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G44" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G2:G6" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G22:G33" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G36" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G45:G46" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G49:G57" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G63:G79" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G81:G84" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G86:G93" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G95" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J95" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L95" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="M95" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N95" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O95" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="P95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="S95" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="T95" location="'srs_Login++'!A1" display="srs_Login"/>
+    <hyperlink ref="U95" location="'SRSLogonStore++'!A1" display="SRSLogonStore"/>
+    <hyperlink ref="V95" location="'srs_salesOrder_DeliverStatus++'!A1" display="srs_salesOrder_DeliverStatus"/>
+    <hyperlink ref="I95" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="R95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="N96" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O96" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="I96" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K96" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J96" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L96" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M96" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="G96" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H96" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="P96" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q96" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12916,7 +12735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12952,14 +12771,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12996,14 +12815,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13054,15 +12873,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="ZEccSRS-display" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1" location="ZEccSRS-display"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E211D525-B2D2-4E1E-A980-9E2C38BFCD21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13114,19 +12933,19 @@
     <cfRule type="duplicateValues" dxfId="207" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E9134482-5003-4D4D-95DF-348D8A8F0EE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{BB778BE2-44EA-41E2-A65C-DACD74EEAA01}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13177,12 +12996,12 @@
     <cfRule type="duplicateValues" dxfId="205" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13190,7 +13009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13466,19 +13285,19 @@
     <cfRule type="duplicateValues" dxfId="203" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13524,14 +13343,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13714,20 +13533,20 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
       <formula1>"Default(General),Retailer,Wholesale"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>"Main Website,Everyshop"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F3:F4" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -13736,14 +13555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15856,103 +15675,103 @@
     <cfRule type="duplicateValues" dxfId="166" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="I2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="J2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="K2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
-    <hyperlink ref="L2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
-    <hyperlink ref="N2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
-    <hyperlink ref="O2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
-    <hyperlink ref="H3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
-    <hyperlink ref="H4:H7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
-    <hyperlink ref="P2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
-    <hyperlink ref="M2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-00000A000000}"/>
-    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-00000B000000}"/>
-    <hyperlink ref="H9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00000C000000}"/>
-    <hyperlink ref="H10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
-    <hyperlink ref="H11" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
-    <hyperlink ref="H12" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00000F000000}"/>
-    <hyperlink ref="H13" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
-    <hyperlink ref="G14" location="'parallel_evs_Login++'!A1" display="parallel_evs_Login" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
-    <hyperlink ref="H15" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-000012000000}"/>
-    <hyperlink ref="H16" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-000013000000}"/>
-    <hyperlink ref="H17" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-1200-000014000000}"/>
-    <hyperlink ref="H18:H20" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-1200-000015000000}"/>
-    <hyperlink ref="I17" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000016000000}"/>
-    <hyperlink ref="I18:I20" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000017000000}"/>
-    <hyperlink ref="L17" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000018000000}"/>
-    <hyperlink ref="K17" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000019000000}"/>
-    <hyperlink ref="K18:K20" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-00001A000000}"/>
-    <hyperlink ref="L18:L20" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-00001B000000}"/>
-    <hyperlink ref="H21" location="'evs_Login++'!A1" display="evs_ForgotPassword" xr:uid="{00000000-0004-0000-1200-00001C000000}"/>
-    <hyperlink ref="H22" location="'evs_Login++'!A1" display="evs_ForgotPasswordLink" xr:uid="{00000000-0004-0000-1200-00001D000000}"/>
-    <hyperlink ref="H23" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00001E000000}"/>
-    <hyperlink ref="J24" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00001F000000}"/>
-    <hyperlink ref="H24" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-1200-000020000000}"/>
-    <hyperlink ref="L24" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-1200-000021000000}"/>
-    <hyperlink ref="G25" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000022000000}"/>
-    <hyperlink ref="G26:G27" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000023000000}"/>
-    <hyperlink ref="H25" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-000024000000}"/>
-    <hyperlink ref="H26:H27" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-000025000000}"/>
-    <hyperlink ref="I25" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000026000000}"/>
-    <hyperlink ref="I26:I27" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000027000000}"/>
-    <hyperlink ref="J25" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000028000000}"/>
-    <hyperlink ref="J26:J27" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000029000000}"/>
-    <hyperlink ref="H28" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-1200-00002A000000}"/>
-    <hyperlink ref="H29:H32" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-1200-00002B000000}"/>
-    <hyperlink ref="I28" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser" xr:uid="{00000000-0004-0000-1200-00002C000000}"/>
-    <hyperlink ref="I29:I32" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser" xr:uid="{00000000-0004-0000-1200-00002D000000}"/>
-    <hyperlink ref="J28" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-00002E000000}"/>
-    <hyperlink ref="J29:J32" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-00002F000000}"/>
-    <hyperlink ref="L28" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000030000000}"/>
-    <hyperlink ref="L29:L32" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000031000000}"/>
-    <hyperlink ref="M28" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000032000000}"/>
-    <hyperlink ref="M29:M32" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000033000000}"/>
-    <hyperlink ref="G33" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000034000000}"/>
-    <hyperlink ref="H33" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000035000000}"/>
-    <hyperlink ref="I33" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-000036000000}"/>
-    <hyperlink ref="J33" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-000037000000}"/>
-    <hyperlink ref="G34:G37" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000038000000}"/>
-    <hyperlink ref="H34:H37" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000039000000}"/>
-    <hyperlink ref="I34:I37" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-1200-00003A000000}"/>
-    <hyperlink ref="J34:J37" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-1200-00003B000000}"/>
-    <hyperlink ref="H39" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-00003C000000}"/>
-    <hyperlink ref="H41:H42" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-00003D000000}"/>
-    <hyperlink ref="K42" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-00003E000000}"/>
-    <hyperlink ref="M42" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-00003F000000}"/>
-    <hyperlink ref="L43" location="'evs_WishlistToCart++'!A1" display="evs_WishlistToCart" xr:uid="{00000000-0004-0000-1200-000040000000}"/>
-    <hyperlink ref="H44" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-000041000000}"/>
-    <hyperlink ref="H43" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-000042000000}"/>
-    <hyperlink ref="I41" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList" xr:uid="{00000000-0004-0000-1200-000043000000}"/>
-    <hyperlink ref="J39" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-000044000000}"/>
-    <hyperlink ref="I41:I44" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-000045000000}"/>
-    <hyperlink ref="J43:J44" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000046000000}"/>
-    <hyperlink ref="H40" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000047000000}"/>
-    <hyperlink ref="K39" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000048000000}"/>
-    <hyperlink ref="G45" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-1200-000049000000}"/>
-    <hyperlink ref="J52" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-1200-00004A000000}"/>
-    <hyperlink ref="K52" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00004B000000}"/>
-    <hyperlink ref="L52" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00004C000000}"/>
-    <hyperlink ref="M52" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-00004D000000}"/>
-    <hyperlink ref="O52" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00004E000000}"/>
-    <hyperlink ref="P52" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00004F000000}"/>
-    <hyperlink ref="N52" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000050000000}"/>
-    <hyperlink ref="J53" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-1200-000051000000}"/>
-    <hyperlink ref="K53" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000052000000}"/>
-    <hyperlink ref="L53" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000053000000}"/>
-    <hyperlink ref="M53" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000054000000}"/>
-    <hyperlink ref="O53" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000055000000}"/>
-    <hyperlink ref="P53" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000056000000}"/>
-    <hyperlink ref="N53" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000057000000}"/>
-    <hyperlink ref="I53" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-1200-000058000000}"/>
-    <hyperlink ref="H48:H51" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-1200-000059000000}"/>
-    <hyperlink ref="H54" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID" xr:uid="{00000000-0004-0000-1200-00005A000000}"/>
-    <hyperlink ref="H55" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter" xr:uid="{00000000-0004-0000-1200-00005D000000}"/>
-    <hyperlink ref="H56" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter" xr:uid="{00000000-0004-0000-1200-00005E000000}"/>
-    <hyperlink ref="H58" location="'evs_SearchNoResultsReturned++'!A1" display="evs_SearchNoResultsReturned" xr:uid="{E8E68601-7207-443D-B536-E0AD5B46139A}"/>
-    <hyperlink ref="H57" location="'evs_PopularSearch++'!A1" display="icPopularSearch" xr:uid="{FF2B64B4-2DD2-404E-BAF8-FC37B4545388}"/>
-    <hyperlink ref="G54" location="'evs_LaunchPortal++'!A1" display="evs_LaunchPortal++" xr:uid="{75196BD6-53F2-4C21-8E33-1D8A916C857B}"/>
-    <hyperlink ref="G55:G58" location="'evs_LaunchPortal++'!A1" display="evs_LaunchPortal++" xr:uid="{C43F1301-CCEF-4111-B4E5-99D4DBFC2F58}"/>
+    <hyperlink ref="H2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="I2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="J2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="K2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="L2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="N2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="O2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="H3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="H4:H7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="P2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="M2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H11" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H12" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H13" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G14" location="'parallel_evs_Login++'!A1" display="parallel_evs_Login"/>
+    <hyperlink ref="H15" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin"/>
+    <hyperlink ref="H16" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin"/>
+    <hyperlink ref="H17" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="H18:H20" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="I17" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="I18:I20" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="L17" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="K17" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="K18:K20" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="L18:L20" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H21" location="'evs_Login++'!A1" display="evs_ForgotPassword"/>
+    <hyperlink ref="H22" location="'evs_Login++'!A1" display="evs_ForgotPasswordLink"/>
+    <hyperlink ref="H23" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="J24" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H24" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="L24" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="G25" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G26:G27" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H25" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend"/>
+    <hyperlink ref="H26:H27" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend"/>
+    <hyperlink ref="I25" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="I26:I27" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J25" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="J26:J27" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H28" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="H29:H32" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="I28" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser"/>
+    <hyperlink ref="I29:I32" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser"/>
+    <hyperlink ref="J28" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="J29:J32" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="L28" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="L29:L32" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="M28" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="M29:M32" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="G33" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H33" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate"/>
+    <hyperlink ref="I33" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J33" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="G34:G37" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H34:H37" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate"/>
+    <hyperlink ref="I34:I37" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J34:J37" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H39" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist"/>
+    <hyperlink ref="H41:H42" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K42" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="M42" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L43" location="'evs_WishlistToCart++'!A1" display="evs_WishlistToCart"/>
+    <hyperlink ref="H44" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H43" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I41" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList"/>
+    <hyperlink ref="J39" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart"/>
+    <hyperlink ref="I41:I44" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart"/>
+    <hyperlink ref="J43:J44" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H40" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="K39" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G45" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="J52" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="K52" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="L52" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="M52" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="O52" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P52" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="N52" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="J53" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="K53" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="L53" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="M53" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="O53" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P53" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="N53" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="I53" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H48:H51" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H54" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID"/>
+    <hyperlink ref="H55" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter"/>
+    <hyperlink ref="H56" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter"/>
+    <hyperlink ref="H58" location="'evs_SearchNoResultsReturned++'!A1" display="evs_SearchNoResultsReturned"/>
+    <hyperlink ref="H57" location="'evs_PopularSearch++'!A1" display="icPopularSearch"/>
+    <hyperlink ref="G54" location="'evs_LaunchPortal++'!A1" display="evs_LaunchPortal++"/>
+    <hyperlink ref="G55:G58" location="'evs_LaunchPortal++'!A1" display="evs_LaunchPortal++"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15960,7 +15779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16014,14 +15833,14 @@
     <cfRule type="duplicateValues" dxfId="165" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16075,15 +15894,15 @@
     <cfRule type="duplicateValues" dxfId="164" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="automation13@gmail.com" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="automation13@gmail.com"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16165,7 +15984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16289,14 +16108,14 @@
     <cfRule type="duplicateValues" dxfId="157" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16459,19 +16278,19 @@
     <cfRule type="duplicateValues" dxfId="150" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16666,18 +16485,18 @@
     <cfRule type="duplicateValues" dxfId="145" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-1800-000002000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId4" display="MichaelGHand@teleworm.us" xr:uid="{00000000-0004-0000-1800-000003000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1800-000004000000}"/>
+    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4:E7" r:id="rId4" display="MichaelGHand@teleworm.us"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17015,16 +16834,16 @@
     <cfRule type="duplicateValues" dxfId="144" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 G2:G7 I2:I7 K2:K7 M2:N7 U2:V7" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 G2:G7 I2:I7 K2:K7 M2:N7 U2:V7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17032,7 +16851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17311,12 +17130,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 F2:F6 H2:H6 J2:J6 L2:L6 N2:N6" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 F2:F6 H2:H6 J2:J6 L2:L6 N2:N6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17324,7 +17143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17417,18 +17236,18 @@
     <cfRule type="duplicateValues" dxfId="143" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-1B00-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-1B00-000003000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1B00-000004000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17754,19 +17573,19 @@
     <cfRule type="duplicateValues" dxfId="295" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17854,15 +17673,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1C00-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17904,14 +17723,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17995,14 +17814,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18046,19 +17865,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"payUcreditcard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18117,14 +17936,14 @@
     <cfRule type="duplicateValues" dxfId="142" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18256,8 +18075,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -18265,7 +18084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19029,28 +18848,28 @@
     <cfRule type="duplicateValues" dxfId="141" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R22 P7 P2:T3 P10:P1048576 T7:T10 Q11:R17 S11:S15" xr:uid="{00000000-0002-0000-2200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R22 P7 P2:T3 P10:P1048576 T7:T10 Q11:R17 S11:S15">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N11:N1048576" xr:uid="{00000000-0002-0000-2200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N11:N1048576">
       <formula1>"ID,Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I11:I1048576 M2:M1048576" xr:uid="{00000000-0002-0000-2200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I11:I1048576 M2:M1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10" xr:uid="{00000000-0002-0000-2200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10 P4:T6 P8:S9 Q7:S7 Q10:S10" xr:uid="{00000000-0002-0000-2200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10 P4:T6 P8:S9 Q7:S7 Q10:S10">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{00000000-0002-0000-2200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -19058,7 +18877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -19643,18 +19462,18 @@
     <cfRule type="duplicateValues" dxfId="131" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H15" xr:uid="{00000000-0002-0000-2300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H15">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K15" xr:uid="{00000000-0002-0000-2300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K15">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19662,15 +19481,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D16:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2300-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\41066\git\TA585\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA464.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[2]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E10:E15</xm:sqref>
         </x14:dataValidation>
@@ -19681,7 +19500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -21072,18 +20891,18 @@
     <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{00000000-0002-0000-2400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16" xr:uid="{00000000-0002-0000-2400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21091,21 +20910,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E39:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E37:E38</xm:sqref>
         </x14:dataValidation>
@@ -21116,7 +20935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -22373,21 +22192,21 @@
     <cfRule type="duplicateValues" dxfId="114" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32" xr:uid="{00000000-0002-0000-2500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32" xr:uid="{00000000-0002-0000-2500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32" xr:uid="{00000000-0002-0000-2500-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-2500-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22395,7 +22214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22445,7 +22264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -22533,8 +22352,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-2600-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -22542,7 +22361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22853,14 +22672,14 @@
     <cfRule type="duplicateValues" dxfId="105" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23075,7 +22894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23118,14 +22937,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23174,14 +22993,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23286,7 +23105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23442,7 +23261,7 @@
     <cfRule type="duplicateValues" dxfId="97" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23451,7 +23270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23663,22 +23482,22 @@
     <cfRule type="duplicateValues" dxfId="95" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2D00-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-2D00-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-2D00-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-2D00-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -24070,7 +23889,7 @@
     <cfRule type="duplicateValues" dxfId="89" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24079,7 +23898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24171,7 +23990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24220,14 +24039,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24290,7 +24109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24446,10 +24265,10 @@
     <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-3100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24458,7 +24277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24574,13 +24393,13 @@
     <cfRule type="duplicateValues" dxfId="82" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-3200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-3200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24589,7 +24408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24726,7 +24545,7 @@
     <cfRule type="duplicateValues" dxfId="80" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-3300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24734,7 +24553,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-3300-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -24747,7 +24566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24853,7 +24672,7 @@
     <cfRule type="duplicateValues" dxfId="78" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24863,7 +24682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25109,25 +24928,25 @@
     <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-3500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-3500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-3500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-3500-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-3500-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-3500-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-3500-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25137,7 +24956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25208,7 +25027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25263,7 +25082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25354,7 +25173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26004,25 +25823,25 @@
     <cfRule type="duplicateValues" dxfId="66" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-3900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-3900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3900-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-3900-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3900-000002000000}"/>
-    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3900-000003000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26138,16 +25957,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -26155,7 +25974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -26813,7 +26632,7 @@
     <cfRule type="duplicateValues" dxfId="60" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-3A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26822,7 +26641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27276,7 +27095,7 @@
     <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27285,7 +27104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27852,7 +27671,7 @@
     <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3C00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27860,7 +27679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28156,19 +27975,19 @@
     <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3D00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29183,18 +29002,18 @@
     <cfRule type="duplicateValues" dxfId="45" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-3E00-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-3E00-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-3E00-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-3E00-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-3E00-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-3E00-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-3E00-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-3E00-000007000000}"/>
-    <hyperlink ref="O34" r:id="rId9" xr:uid="{00000000-0004-0000-3E00-000008000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3E00-000009000000}"/>
-    <hyperlink ref="O35" r:id="rId10" xr:uid="{00000000-0004-0000-3E00-00000A000000}"/>
-    <hyperlink ref="O36" r:id="rId11" xr:uid="{00000000-0004-0000-3E00-00000B000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O34" r:id="rId9"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
+    <hyperlink ref="O35" r:id="rId10"/>
+    <hyperlink ref="O36" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -29202,7 +29021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29372,7 +29191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29535,19 +29354,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-4000-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-4000-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-4000-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-4000-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-4000-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-4000-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29804,14 +29623,14 @@
     <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-4100-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30148,14 +29967,14 @@
     <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4200-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30468,14 +30287,14 @@
     <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4300-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30867,14 +30686,14 @@
     <cfRule type="duplicateValues" dxfId="293" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31143,14 +30962,14 @@
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4400-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31213,7 +31032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31321,7 +31140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -31421,7 +31240,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-4700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Reuse,Redeem"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31431,7 +31250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31515,7 +31334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32153,44 +31972,44 @@
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-4900-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-4900-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" display="Password@123" xr:uid="{00000000-0004-0000-4900-000002000000}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{00000000-0004-0000-4900-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{00000000-0004-0000-4900-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-4900-000005000000}"/>
-    <hyperlink ref="F14" r:id="rId7" display="Password@123" xr:uid="{00000000-0004-0000-4900-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-4900-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-4900-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-4900-000009000000}"/>
-    <hyperlink ref="F17" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-4900-00000A000000}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{00000000-0004-0000-4900-00000B000000}"/>
-    <hyperlink ref="F18" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-4900-00000C000000}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{00000000-0004-0000-4900-00000D000000}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{00000000-0004-0000-4900-00000E000000}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-4900-00000F000000}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-4900-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId18" xr:uid="{00000000-0004-0000-4900-000011000000}"/>
-    <hyperlink ref="F19" r:id="rId19" display="Password@123" xr:uid="{00000000-0004-0000-4900-000012000000}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-4900-000013000000}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{00000000-0004-0000-4900-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId22" display="Password@123" xr:uid="{00000000-0004-0000-4900-000015000000}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{00000000-0004-0000-4900-000016000000}"/>
-    <hyperlink ref="F15" r:id="rId24" display="Password@123" xr:uid="{00000000-0004-0000-4900-000017000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-4900-000018000000}"/>
-    <hyperlink ref="E10" r:id="rId26" xr:uid="{00000000-0004-0000-4900-000019000000}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{00000000-0004-0000-4900-00001A000000}"/>
-    <hyperlink ref="E9" r:id="rId28" xr:uid="{00000000-0004-0000-4900-00001B000000}"/>
-    <hyperlink ref="F9" r:id="rId29" xr:uid="{00000000-0004-0000-4900-00001C000000}"/>
-    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123" xr:uid="{00000000-0004-0000-4900-00001D000000}"/>
-    <hyperlink ref="F3" r:id="rId31" xr:uid="{00000000-0004-0000-4900-00001E000000}"/>
-    <hyperlink ref="F4" r:id="rId32" xr:uid="{00000000-0004-0000-4900-00001F000000}"/>
-    <hyperlink ref="F5" r:id="rId33" xr:uid="{00000000-0004-0000-4900-000020000000}"/>
-    <hyperlink ref="F6" r:id="rId34" xr:uid="{00000000-0004-0000-4900-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-4900-000022000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4900-000023000000}"/>
-    <hyperlink ref="F29" r:id="rId36" display="Password@123" xr:uid="{00000000-0004-0000-4900-000024000000}"/>
-    <hyperlink ref="E29" r:id="rId37" xr:uid="{00000000-0004-0000-4900-000025000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" display="Password@123"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7" display="Password@123"/>
+    <hyperlink ref="F12" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="E20" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E16" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19" display="Password@123"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E11" r:id="rId21"/>
+    <hyperlink ref="F11" r:id="rId22" display="Password@123"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123"/>
+    <hyperlink ref="F3" r:id="rId31"/>
+    <hyperlink ref="F4" r:id="rId32"/>
+    <hyperlink ref="F5" r:id="rId33"/>
+    <hyperlink ref="F6" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
+    <hyperlink ref="F29" r:id="rId36" display="Password@123"/>
+    <hyperlink ref="E29" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
@@ -32198,7 +32017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32440,14 +32259,14 @@
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4A00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32534,15 +32353,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-4B00-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-4B00-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32598,7 +32417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32699,14 +32518,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-4D00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33347,7 +33166,7 @@
     <cfRule type="duplicateValues" dxfId="283" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33355,7 +33174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33479,7 +33298,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021" xr:uid="{00000000-0004-0000-4E00-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -33487,7 +33306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33614,9 +33433,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-4F00-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-4F00-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-4F00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -33624,7 +33443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33681,7 +33500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34150,17 +33969,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-5100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-5100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5100-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5100-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5100-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -34169,7 +33988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA02C0D-1DFA-410A-BB58-62921AA88D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34212,7 +34031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34253,7 +34072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34357,7 +34176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34561,7 +34380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34665,7 +34484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34769,7 +34588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -35774,19 +35593,19 @@
     <cfRule type="duplicateValues" dxfId="262" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D61 D62:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D61 D62:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36159,7 +35978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36263,7 +36082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
@@ -36367,6 +36186,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -36515,7 +36343,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -36524,16 +36352,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36552,7 +36379,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -36567,12 +36394,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>